--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,120 +40,117 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
+    <t>horrible</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>evil</t>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>dumb</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>guilty</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>hate</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>shocking</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>sick</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -166,28 +163,34 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>thanks</t>
@@ -196,70 +199,76 @@
     <t>important</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>top</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
-    <t>live</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>digital</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>opening</t>
   </si>
   <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>real</t>
+    <t>media</t>
   </si>
   <si>
     <t>twitter</t>
@@ -268,25 +277,22 @@
     <t>netflix</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
     <t>watch</t>
   </si>
   <si>
+    <t>’</t>
+  </si>
+  <si>
     <t>documentary</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>dilemma</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -647,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,10 +661,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -719,10 +725,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -737,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -769,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -819,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -837,16 +843,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -858,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -887,16 +893,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -908,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -916,13 +922,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -937,16 +943,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -966,13 +972,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9326923076923077</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -984,19 +990,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1008,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1016,13 +1022,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9230769230769231</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1034,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>0.7543859649122807</v>
+        <v>0.7</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1058,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1066,13 +1072,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1084,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1108,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1116,13 +1122,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8939393939393939</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1134,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>0.7466666666666667</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L11">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1158,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1166,13 +1172,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1184,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>0.7241379310344828</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1208,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1216,13 +1222,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1234,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>0.6111111111111112</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1266,13 +1272,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7777777777777778</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1284,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>0.5666666666666667</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1308,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1316,13 +1322,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1334,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>0.5555555555555556</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1358,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1387,16 +1393,16 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>0.5263157894736842</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1408,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1437,16 +1443,16 @@
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17">
-        <v>0.5151515151515151</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1458,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1466,13 +1472,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1484,19 +1490,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1508,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1516,13 +1522,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6857142857142857</v>
+        <v>0.675</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1534,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19">
         <v>0.4615384615384616</v>
@@ -1566,13 +1572,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1584,31 +1590,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20">
-        <v>0.4166666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L20">
+        <v>16</v>
+      </c>
+      <c r="M20">
+        <v>16</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>20</v>
-      </c>
-      <c r="M20">
-        <v>20</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1616,13 +1622,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.65</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1634,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K21">
-        <v>0.3333333333333333</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1658,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1666,13 +1672,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6470588235294118</v>
+        <v>0.65</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1684,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K22">
-        <v>0.3157894736842105</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1708,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1716,13 +1722,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6376811594202898</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C23">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1734,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K23">
-        <v>0.3043478260869565</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1758,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1766,38 +1772,38 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6363636363636364</v>
+        <v>0.625</v>
       </c>
       <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="L24">
         <v>7</v>
       </c>
-      <c r="D24">
+      <c r="M24">
         <v>7</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24">
-        <v>0.2682926829268293</v>
-      </c>
-      <c r="L24">
-        <v>11</v>
-      </c>
-      <c r="M24">
-        <v>11</v>
-      </c>
       <c r="N24">
         <v>1</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1816,13 +1822,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.625</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1834,19 +1840,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K25">
-        <v>0.2550091074681239</v>
+        <v>0.2641165755919854</v>
       </c>
       <c r="L25">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="M25">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1858,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>818</v>
+        <v>808</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1866,13 +1872,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5957446808510638</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1884,19 +1890,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K26">
-        <v>0.2372881355932203</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1908,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1916,13 +1922,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5833333333333334</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1934,19 +1940,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K27">
-        <v>0.2142857142857143</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1958,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1966,13 +1972,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5652173913043478</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1984,19 +1990,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K28">
-        <v>0.2037037037037037</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2008,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2037,16 +2043,16 @@
         <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K29">
-        <v>0.2</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2058,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2066,13 +2072,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2087,16 +2093,16 @@
         <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K30">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2108,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2116,13 +2122,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2134,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K31">
-        <v>0.180327868852459</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L31">
         <v>11</v>
@@ -2158,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2166,13 +2172,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5294117647058824</v>
+        <v>0.5</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2184,19 +2190,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K32">
-        <v>0.1463414634146341</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="L32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2208,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2216,13 +2222,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2234,19 +2240,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K33">
-        <v>0.1411764705882353</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2258,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2266,13 +2272,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2284,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K34">
-        <v>0.136986301369863</v>
+        <v>0.16</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2308,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2316,37 +2322,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>12</v>
       </c>
-      <c r="D35">
-        <v>12</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
+      <c r="J35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35">
+        <v>0.1473684210526316</v>
+      </c>
+      <c r="L35">
         <v>14</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K35">
-        <v>0.1267605633802817</v>
-      </c>
-      <c r="L35">
-        <v>9</v>
-      </c>
       <c r="M35">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2358,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2366,13 +2372,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4615384615384616</v>
+        <v>0.4</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2384,13 +2390,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K36">
-        <v>0.1111111111111111</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L36">
         <v>6</v>
@@ -2408,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2416,13 +2422,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2434,19 +2440,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K37">
-        <v>0.08759124087591241</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L37">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2458,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>125</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2466,13 +2472,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3809523809523809</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2484,19 +2490,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K38">
-        <v>0.05185185185185185</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2508,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>512</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2516,13 +2522,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3571428571428572</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2534,19 +2540,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K39">
-        <v>0.04969879518072289</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2558,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>631</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2566,13 +2572,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3571428571428572</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2584,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K40">
-        <v>0.04707792207792208</v>
+        <v>0.07078313253012049</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2608,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>587</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2616,87 +2622,63 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2051282051282051</v>
+        <v>0.04713804713804714</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>16</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41">
+        <v>0.0583941605839416</v>
+      </c>
+      <c r="L41">
+        <v>8</v>
+      </c>
+      <c r="M41">
+        <v>8</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K41">
-        <v>0.04240282685512368</v>
-      </c>
-      <c r="L41">
-        <v>12</v>
-      </c>
-      <c r="M41">
-        <v>12</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.05351170568561873</v>
-      </c>
-      <c r="C42">
-        <v>16</v>
-      </c>
-      <c r="D42">
-        <v>16</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>283</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="K42">
-        <v>0.04126984126984127</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2708,21 +2690,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>302</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K43">
-        <v>0.03812316715542522</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2734,12 +2716,12 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>328</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K44">
         <v>0.03585147247119078</v>
@@ -2765,28 +2747,106 @@
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K45">
+        <v>0.02826855123674912</v>
+      </c>
+      <c r="L45">
+        <v>8</v>
+      </c>
+      <c r="M45">
+        <v>8</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K45">
-        <v>0.02304147465437788</v>
-      </c>
-      <c r="L45">
-        <v>40</v>
-      </c>
-      <c r="M45">
-        <v>40</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>1696</v>
+      <c r="K46">
+        <v>0.02639296187683285</v>
+      </c>
+      <c r="L46">
+        <v>9</v>
+      </c>
+      <c r="M46">
+        <v>9</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K47">
+        <v>0.02534562211981567</v>
+      </c>
+      <c r="L47">
+        <v>44</v>
+      </c>
+      <c r="M47">
+        <v>44</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <v>7</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
